--- a/Ozrit HR data/ozrit/HR/HR/Employees/Flutter/Visweshwar reddy/Salary details.xlsx
+++ b/Ozrit HR data/ozrit/HR/HR/Employees/Flutter/Visweshwar reddy/Salary details.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pixld\Downloads\ozrit\Ozrit HR data\ozrit\HR\HR\Employees\Flutter\Visweshwar reddy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE80D014-EBEE-424E-92A5-EF1125CFC928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="8370"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Month </t>
   </si>
@@ -75,12 +76,21 @@
   </si>
   <si>
     <t xml:space="preserve">80 ruppes given to charan for moov spray , and 1000 ruppes return to bharath sir </t>
+  </si>
+  <si>
+    <t>05.08.2025</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,23 +179,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,173 +476,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="6" width="16.7265625" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" customWidth="1"/>
-    <col min="8" max="8" width="20.36328125" customWidth="1"/>
+    <col min="2" max="7" width="16.7265625" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" customWidth="1"/>
+    <col min="9" max="9" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E7" s="1" t="s">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>27730</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>45430</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2"/>
+      <c r="F8" s="1">
         <v>10500</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="2">
         <v>7200</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>27290</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>44709</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2"/>
+      <c r="F9" s="1">
         <v>13420</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="2">
         <v>4000</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>28200</v>
+      </c>
+      <c r="D10" s="2">
+        <v>46200</v>
+      </c>
+      <c r="E10" s="2">
+        <v>18000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7079</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -639,7 +673,7 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
